--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>32.0817119329965</v>
+        <v>0.3374353333333334</v>
       </c>
       <c r="H2">
-        <v>32.0817119329965</v>
+        <v>1.012306</v>
       </c>
       <c r="I2">
-        <v>0.2646190228725222</v>
+        <v>0.002453434448260963</v>
       </c>
       <c r="J2">
-        <v>0.2646190228725222</v>
+        <v>0.002456996523359604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N2">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O2">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P2">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q2">
-        <v>23315.1485989946</v>
+        <v>263.2449970173747</v>
       </c>
       <c r="R2">
-        <v>23315.1485989946</v>
+        <v>2369.204973156372</v>
       </c>
       <c r="S2">
-        <v>0.2003550079427405</v>
+        <v>0.001873631826513215</v>
       </c>
       <c r="T2">
-        <v>0.2003550079427405</v>
+        <v>0.001981697257611162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>32.0817119329965</v>
+        <v>0.3374353333333334</v>
       </c>
       <c r="H3">
-        <v>32.0817119329965</v>
+        <v>1.012306</v>
       </c>
       <c r="I3">
-        <v>0.2646190228725222</v>
+        <v>0.002453434448260963</v>
       </c>
       <c r="J3">
-        <v>0.2646190228725222</v>
+        <v>0.002456996523359604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N3">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P3">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q3">
-        <v>2235.900087088723</v>
+        <v>25.60454281546867</v>
       </c>
       <c r="R3">
-        <v>2235.900087088723</v>
+        <v>230.440885339218</v>
       </c>
       <c r="S3">
-        <v>0.01921385050606767</v>
+        <v>0.000182238929005044</v>
       </c>
       <c r="T3">
-        <v>0.01921385050606767</v>
+        <v>0.0001927499206241434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>32.0817119329965</v>
+        <v>0.3374353333333334</v>
       </c>
       <c r="H4">
-        <v>32.0817119329965</v>
+        <v>1.012306</v>
       </c>
       <c r="I4">
-        <v>0.2646190228725222</v>
+        <v>0.002453434448260963</v>
       </c>
       <c r="J4">
-        <v>0.2646190228725222</v>
+        <v>0.002456996523359604</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N4">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O4">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P4">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q4">
-        <v>46.83074333786305</v>
+        <v>0.502044049946</v>
       </c>
       <c r="R4">
-        <v>46.83074333786305</v>
+        <v>4.518396449514</v>
       </c>
       <c r="S4">
-        <v>0.0004024325177934572</v>
+        <v>3.573270986906282E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004024325177934572</v>
+        <v>3.779366477047707E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>32.0817119329965</v>
+        <v>0.3374353333333334</v>
       </c>
       <c r="H5">
-        <v>32.0817119329965</v>
+        <v>1.012306</v>
       </c>
       <c r="I5">
-        <v>0.2646190228725222</v>
+        <v>0.002453434448260963</v>
       </c>
       <c r="J5">
-        <v>0.2646190228725222</v>
+        <v>0.002456996523359604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N5">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O5">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P5">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q5">
-        <v>34.35890290733283</v>
+        <v>0.3826714642062223</v>
       </c>
       <c r="R5">
-        <v>34.35890290733283</v>
+        <v>3.444043177856001</v>
       </c>
       <c r="S5">
-        <v>0.0002952577477974715</v>
+        <v>2.723643155838849E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002952577477974715</v>
+        <v>2.880734675969803E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>32.0817119329965</v>
+        <v>0.3374353333333334</v>
       </c>
       <c r="H6">
-        <v>32.0817119329965</v>
+        <v>1.012306</v>
       </c>
       <c r="I6">
-        <v>0.2646190228725222</v>
+        <v>0.002453434448260963</v>
       </c>
       <c r="J6">
-        <v>0.2646190228725222</v>
+        <v>0.002456996523359604</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N6">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O6">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P6">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q6">
-        <v>5161.261185072243</v>
+        <v>54.972925047512</v>
       </c>
       <c r="R6">
-        <v>5161.261185072243</v>
+        <v>329.837550285072</v>
       </c>
       <c r="S6">
-        <v>0.04435247415812308</v>
+        <v>0.0003912667785999589</v>
       </c>
       <c r="T6">
-        <v>0.04435247415812308</v>
+        <v>0.0002758892439712811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.0776521706935</v>
+        <v>35.42742666666667</v>
       </c>
       <c r="H7">
-        <v>26.0776521706935</v>
+        <v>106.28228</v>
       </c>
       <c r="I7">
-        <v>0.215095841850042</v>
+        <v>0.2575867445137312</v>
       </c>
       <c r="J7">
-        <v>0.215095841850042</v>
+        <v>0.2579607277391737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N7">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O7">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P7">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q7">
-        <v>18951.74224936768</v>
+        <v>27638.16324471037</v>
       </c>
       <c r="R7">
-        <v>18951.74224936768</v>
+        <v>248743.4692023933</v>
       </c>
       <c r="S7">
-        <v>0.1628587719601569</v>
+        <v>0.196713110860144</v>
       </c>
       <c r="T7">
-        <v>0.1628587719601569</v>
+        <v>0.2080589296207487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0776521706935</v>
+        <v>35.42742666666667</v>
       </c>
       <c r="H8">
-        <v>26.0776521706935</v>
+        <v>106.28228</v>
       </c>
       <c r="I8">
-        <v>0.215095841850042</v>
+        <v>0.2575867445137312</v>
       </c>
       <c r="J8">
-        <v>0.215095841850042</v>
+        <v>0.2579607277391737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N8">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P8">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q8">
-        <v>1817.453659620746</v>
+        <v>2688.227856780094</v>
       </c>
       <c r="R8">
-        <v>1817.453659620746</v>
+        <v>24194.05071102084</v>
       </c>
       <c r="S8">
-        <v>0.01561799792365808</v>
+        <v>0.01913331431347262</v>
       </c>
       <c r="T8">
-        <v>0.01561799792365808</v>
+        <v>0.02023686615880276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0776521706935</v>
+        <v>35.42742666666667</v>
       </c>
       <c r="H9">
-        <v>26.0776521706935</v>
+        <v>106.28228</v>
       </c>
       <c r="I9">
-        <v>0.215095841850042</v>
+        <v>0.2575867445137312</v>
       </c>
       <c r="J9">
-        <v>0.215095841850042</v>
+        <v>0.2579607277391737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N9">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O9">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P9">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q9">
-        <v>38.0664173473784</v>
+        <v>52.70974022548</v>
       </c>
       <c r="R9">
-        <v>38.0664173473784</v>
+        <v>474.38766202932</v>
       </c>
       <c r="S9">
-        <v>0.0003271176813479352</v>
+        <v>0.0003751586847714523</v>
       </c>
       <c r="T9">
-        <v>0.0003271176813479352</v>
+        <v>0.000396796705873716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.0776521706935</v>
+        <v>35.42742666666667</v>
       </c>
       <c r="H10">
-        <v>26.0776521706935</v>
+        <v>106.28228</v>
       </c>
       <c r="I10">
-        <v>0.215095841850042</v>
+        <v>0.2575867445137312</v>
       </c>
       <c r="J10">
-        <v>0.215095841850042</v>
+        <v>0.2579607277391737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N10">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O10">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P10">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q10">
-        <v>27.92866917000482</v>
+        <v>40.17678024903112</v>
       </c>
       <c r="R10">
-        <v>27.92866917000482</v>
+        <v>361.59102224128</v>
       </c>
       <c r="S10">
-        <v>0.000240000560563778</v>
+        <v>0.0002859560296085849</v>
       </c>
       <c r="T10">
-        <v>0.000240000560563778</v>
+        <v>0.0003024491106810904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.0776521706935</v>
+        <v>35.42742666666667</v>
       </c>
       <c r="H11">
-        <v>26.0776521706935</v>
+        <v>106.28228</v>
       </c>
       <c r="I11">
-        <v>0.215095841850042</v>
+        <v>0.2575867445137312</v>
       </c>
       <c r="J11">
-        <v>0.215095841850042</v>
+        <v>0.2579607277391737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N11">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O11">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P11">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q11">
-        <v>4195.336403104595</v>
+        <v>5771.62222916656</v>
       </c>
       <c r="R11">
-        <v>4195.336403104595</v>
+        <v>34629.73337499936</v>
       </c>
       <c r="S11">
-        <v>0.03605195372431536</v>
+        <v>0.04107920462573455</v>
       </c>
       <c r="T11">
-        <v>0.03605195372431536</v>
+        <v>0.02896568614306742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.8781940782795</v>
+        <v>27.68558766666667</v>
       </c>
       <c r="H12">
-        <v>62.8781940782795</v>
+        <v>83.056763</v>
       </c>
       <c r="I12">
-        <v>0.518637107387961</v>
+        <v>0.2012971606463328</v>
       </c>
       <c r="J12">
-        <v>0.518637107387961</v>
+        <v>0.2015894185478527</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N12">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O12">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P12">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q12">
-        <v>45696.26588610105</v>
+        <v>21598.48635512167</v>
       </c>
       <c r="R12">
-        <v>45696.26588610105</v>
+        <v>194386.377196095</v>
       </c>
       <c r="S12">
-        <v>0.3926835668959949</v>
+        <v>0.1537260418924369</v>
       </c>
       <c r="T12">
-        <v>0.3926835668959949</v>
+        <v>0.1625924962048632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.8781940782795</v>
+        <v>27.68558766666667</v>
       </c>
       <c r="H13">
-        <v>62.8781940782795</v>
+        <v>83.056763</v>
       </c>
       <c r="I13">
-        <v>0.518637107387961</v>
+        <v>0.2012971606463328</v>
       </c>
       <c r="J13">
-        <v>0.518637107387961</v>
+        <v>0.2015894185478527</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N13">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P13">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q13">
-        <v>4382.2274792951</v>
+        <v>2100.778266994104</v>
       </c>
       <c r="R13">
-        <v>4382.2274792951</v>
+        <v>18907.00440294694</v>
       </c>
       <c r="S13">
-        <v>0.03765797235617563</v>
+        <v>0.01495217408149884</v>
       </c>
       <c r="T13">
-        <v>0.03765797235617563</v>
+        <v>0.01581457037254377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.8781940782795</v>
+        <v>27.68558766666667</v>
       </c>
       <c r="H14">
-        <v>62.8781940782795</v>
+        <v>83.056763</v>
       </c>
       <c r="I14">
-        <v>0.518637107387961</v>
+        <v>0.2012971606463328</v>
       </c>
       <c r="J14">
-        <v>0.518637107387961</v>
+        <v>0.2015894185478527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N14">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O14">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P14">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q14">
-        <v>91.78539395211173</v>
+        <v>41.19125409898299</v>
       </c>
       <c r="R14">
-        <v>91.78539395211173</v>
+        <v>370.721286890847</v>
       </c>
       <c r="S14">
-        <v>0.000788743132226741</v>
+        <v>0.0002931764915887599</v>
       </c>
       <c r="T14">
-        <v>0.000788743132226741</v>
+        <v>0.0003100860271245022</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.8781940782795</v>
+        <v>27.68558766666667</v>
       </c>
       <c r="H15">
-        <v>62.8781940782795</v>
+        <v>83.056763</v>
       </c>
       <c r="I15">
-        <v>0.518637107387961</v>
+        <v>0.2012971606463328</v>
       </c>
       <c r="J15">
-        <v>0.518637107387961</v>
+        <v>0.2015894185478527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N15">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O15">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P15">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q15">
-        <v>67.34134917226802</v>
+        <v>31.39708063514312</v>
       </c>
       <c r="R15">
-        <v>67.34134917226802</v>
+        <v>282.573725716288</v>
       </c>
       <c r="S15">
-        <v>0.0005786871351472509</v>
+        <v>0.0002234669991989372</v>
       </c>
       <c r="T15">
-        <v>0.0005786871351472509</v>
+        <v>0.0002363559015237544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.8781940782795</v>
+        <v>27.68558766666667</v>
       </c>
       <c r="H16">
-        <v>62.8781940782795</v>
+        <v>83.056763</v>
       </c>
       <c r="I16">
-        <v>0.518637107387961</v>
+        <v>0.2012971606463328</v>
       </c>
       <c r="J16">
-        <v>0.518637107387961</v>
+        <v>0.2015894185478527</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N16">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O16">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P16">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q16">
-        <v>10115.75638985396</v>
+        <v>4510.368610961475</v>
       </c>
       <c r="R16">
-        <v>10115.75638985396</v>
+        <v>27062.21166576885</v>
       </c>
       <c r="S16">
-        <v>0.0869281378684164</v>
+        <v>0.03210230118160937</v>
       </c>
       <c r="T16">
-        <v>0.0869281378684164</v>
+        <v>0.02263591004179751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.199802551735457</v>
+        <v>73.48727233333334</v>
       </c>
       <c r="H17">
-        <v>0.199802551735457</v>
+        <v>220.461817</v>
       </c>
       <c r="I17">
-        <v>0.001648027889474752</v>
+        <v>0.534313356192697</v>
       </c>
       <c r="J17">
-        <v>0.001648027889474752</v>
+        <v>0.5350891112988969</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N17">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O17">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P17">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q17">
-        <v>145.2050374961203</v>
+        <v>57329.96777516877</v>
       </c>
       <c r="R17">
-        <v>145.2050374961203</v>
+        <v>515969.7099765189</v>
       </c>
       <c r="S17">
-        <v>0.001247796312227478</v>
+        <v>0.4080429009233691</v>
       </c>
       <c r="T17">
-        <v>0.001247796312227478</v>
+        <v>0.4315775844032079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.199802551735457</v>
+        <v>73.48727233333334</v>
       </c>
       <c r="H18">
-        <v>0.199802551735457</v>
+        <v>220.461817</v>
       </c>
       <c r="I18">
-        <v>0.001648027889474752</v>
+        <v>0.534313356192697</v>
       </c>
       <c r="J18">
-        <v>0.001648027889474752</v>
+        <v>0.5350891112988969</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N18">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P18">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q18">
-        <v>13.92502194891852</v>
+        <v>5576.203275049756</v>
       </c>
       <c r="R18">
-        <v>13.92502194891852</v>
+        <v>50185.8294754478</v>
       </c>
       <c r="S18">
-        <v>0.0001196624534187492</v>
+        <v>0.03968832093910933</v>
       </c>
       <c r="T18">
-        <v>0.0001196624534187492</v>
+        <v>0.04197742355315925</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.199802551735457</v>
+        <v>73.48727233333334</v>
       </c>
       <c r="H19">
-        <v>0.199802551735457</v>
+        <v>220.461817</v>
       </c>
       <c r="I19">
-        <v>0.001648027889474752</v>
+        <v>0.534313356192697</v>
       </c>
       <c r="J19">
-        <v>0.001648027889474752</v>
+        <v>0.5350891112988969</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N19">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O19">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P19">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q19">
-        <v>0.2916584388674591</v>
+        <v>109.336053984797</v>
       </c>
       <c r="R19">
-        <v>0.2916584388674591</v>
+        <v>984.0244858631729</v>
       </c>
       <c r="S19">
-        <v>2.506320240153945E-06</v>
+        <v>0.000778193366834477</v>
       </c>
       <c r="T19">
-        <v>2.506320240153945E-06</v>
+        <v>0.0008230772124622654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.199802551735457</v>
+        <v>73.48727233333334</v>
       </c>
       <c r="H20">
-        <v>0.199802551735457</v>
+        <v>220.461817</v>
       </c>
       <c r="I20">
-        <v>0.001648027889474752</v>
+        <v>0.534313356192697</v>
       </c>
       <c r="J20">
-        <v>0.001648027889474752</v>
+        <v>0.5350891112988969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N20">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O20">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P20">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q20">
-        <v>0.2139847303053415</v>
+        <v>83.33887807931023</v>
       </c>
       <c r="R20">
-        <v>0.2139847303053415</v>
+        <v>750.0499027137921</v>
       </c>
       <c r="S20">
-        <v>1.838843623831788E-06</v>
+        <v>0.0005931598933483025</v>
       </c>
       <c r="T20">
-        <v>1.838843623831788E-06</v>
+        <v>0.0006273715664623236</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>73.48727233333334</v>
+      </c>
+      <c r="H21">
+        <v>220.461817</v>
+      </c>
+      <c r="I21">
+        <v>0.534313356192697</v>
+      </c>
+      <c r="J21">
+        <v>0.5350891112988969</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>162.913956</v>
+      </c>
+      <c r="N21">
+        <v>325.827912</v>
+      </c>
+      <c r="O21">
+        <v>0.1594771683740299</v>
+      </c>
+      <c r="P21">
+        <v>0.1122871934690573</v>
+      </c>
+      <c r="Q21">
+        <v>11972.10225147268</v>
+      </c>
+      <c r="R21">
+        <v>71832.61350883609</v>
+      </c>
+      <c r="S21">
+        <v>0.08521078107003578</v>
+      </c>
+      <c r="T21">
+        <v>0.0600836545636052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5981854999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.196371</v>
+      </c>
+      <c r="I22">
+        <v>0.004349304198978001</v>
+      </c>
+      <c r="J22">
+        <v>0.002903745890717087</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>780.134654</v>
+      </c>
+      <c r="N22">
+        <v>2340.403962</v>
+      </c>
+      <c r="O22">
+        <v>0.7636771497364756</v>
+      </c>
+      <c r="P22">
+        <v>0.8065527316666545</v>
+      </c>
+      <c r="Q22">
+        <v>466.6652380703169</v>
+      </c>
+      <c r="R22">
+        <v>2799.991428421902</v>
+      </c>
+      <c r="S22">
+        <v>0.003321464234012405</v>
+      </c>
+      <c r="T22">
+        <v>0.00234202418022369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5981854999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.196371</v>
+      </c>
+      <c r="I23">
+        <v>0.004349304198978001</v>
+      </c>
+      <c r="J23">
+        <v>0.002903745890717087</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>75.879851</v>
+      </c>
+      <c r="N23">
+        <v>227.639553</v>
+      </c>
+      <c r="O23">
+        <v>0.0742791107111984</v>
+      </c>
+      <c r="P23">
+        <v>0.07844940714876734</v>
+      </c>
+      <c r="Q23">
+        <v>45.39022661036049</v>
+      </c>
+      <c r="R23">
+        <v>272.341359662163</v>
+      </c>
+      <c r="S23">
+        <v>0.000323062448112567</v>
+      </c>
+      <c r="T23">
+        <v>0.0002277971436374249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5981854999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.196371</v>
+      </c>
+      <c r="I24">
+        <v>0.004349304198978001</v>
+      </c>
+      <c r="J24">
+        <v>0.002903745890717087</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.487823</v>
+      </c>
+      <c r="N24">
+        <v>4.463469</v>
+      </c>
+      <c r="O24">
+        <v>0.001456436298691036</v>
+      </c>
+      <c r="P24">
+        <v>0.001538205870914276</v>
+      </c>
+      <c r="Q24">
+        <v>0.8899941451664998</v>
+      </c>
+      <c r="R24">
+        <v>5.339964870998999</v>
+      </c>
+      <c r="S24">
+        <v>6.334484509440902E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.466558976744226E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.199802551735457</v>
-      </c>
-      <c r="H21">
-        <v>0.199802551735457</v>
-      </c>
-      <c r="I21">
-        <v>0.001648027889474752</v>
-      </c>
-      <c r="J21">
-        <v>0.001648027889474752</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>160.878608842685</v>
-      </c>
-      <c r="N21">
-        <v>160.878608842685</v>
-      </c>
-      <c r="O21">
-        <v>0.1676087897108194</v>
-      </c>
-      <c r="P21">
-        <v>0.1676087897108194</v>
-      </c>
-      <c r="Q21">
-        <v>32.14395656641892</v>
-      </c>
-      <c r="R21">
-        <v>32.14395656641892</v>
-      </c>
-      <c r="S21">
-        <v>0.0002762239599645393</v>
-      </c>
-      <c r="T21">
-        <v>0.0002762239599645393</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5981854999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.196371</v>
+      </c>
+      <c r="I25">
+        <v>0.004349304198978001</v>
+      </c>
+      <c r="J25">
+        <v>0.002903745890717087</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.134058666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.402176</v>
+      </c>
+      <c r="O25">
+        <v>0.001110134879604961</v>
+      </c>
+      <c r="P25">
+        <v>0.001172461844606437</v>
+      </c>
+      <c r="Q25">
+        <v>0.6783774505493333</v>
+      </c>
+      <c r="R25">
+        <v>4.070264703296</v>
+      </c>
+      <c r="S25">
+        <v>4.828314293297795E-06</v>
+      </c>
+      <c r="T25">
+        <v>3.404531263298517E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5981854999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.196371</v>
+      </c>
+      <c r="I26">
+        <v>0.004349304198978001</v>
+      </c>
+      <c r="J26">
+        <v>0.002903745890717087</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>162.913956</v>
+      </c>
+      <c r="N26">
+        <v>325.827912</v>
+      </c>
+      <c r="O26">
+        <v>0.1594771683740299</v>
+      </c>
+      <c r="P26">
+        <v>0.1122871934690573</v>
+      </c>
+      <c r="Q26">
+        <v>97.45276622683798</v>
+      </c>
+      <c r="R26">
+        <v>389.8110649073519</v>
+      </c>
+      <c r="S26">
+        <v>0.0006936147180502901</v>
+      </c>
+      <c r="T26">
+        <v>0.0003260534766159299</v>
       </c>
     </row>
   </sheetData>
